--- a/media/sample.xlsx
+++ b/media/sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,1312 +452,1299 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>admin admin</t>
+          <t>firstName1 lastName1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>firstName1 lastName1</t>
+          <t>firstName2 lastName2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>firstName2 lastName2</t>
+          <t>firstName3 lastName3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>firstName3 lastName3</t>
+          <t>firstName4 lastName4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>firstName4 lastName4</t>
+          <t>firstName5 lastName5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>firstName5 lastName5</t>
+          <t>firstName6 lastName6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>firstName6 lastName6</t>
+          <t>firstName7 lastName7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>firstName7 lastName7</t>
+          <t>firstName8 lastName8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>firstName8 lastName8</t>
+          <t>firstName9 lastName9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>firstName9 lastName9</t>
+          <t>firstName10 lastName10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>firstName10 lastName10</t>
+          <t>firstName11 lastName11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>firstName11 lastName11</t>
+          <t>firstName12 lastName12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>firstName12 lastName12</t>
+          <t>firstName13 lastName13</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>firstName13 lastName13</t>
+          <t>firstName14 lastName14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>firstName14 lastName14</t>
+          <t>firstName15 lastName15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>firstName15 lastName15</t>
+          <t>firstName16 lastName16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>firstName16 lastName16</t>
+          <t>firstName17 lastName17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>firstName17 lastName17</t>
+          <t>firstName18 lastName18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>firstName18 lastName18</t>
+          <t>firstName19 lastName19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>firstName19 lastName19</t>
+          <t>firstName20 lastName20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>firstName20 lastName20</t>
+          <t>firstName21 lastName21</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>firstName21 lastName21</t>
+          <t>firstName22 lastName22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>firstName22 lastName22</t>
+          <t>firstName23 lastName23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>firstName23 lastName23</t>
+          <t>firstName24 lastName24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>firstName24 lastName24</t>
+          <t>firstName25 lastName25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>firstName25 lastName25</t>
+          <t>firstName26 lastName26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>firstName26 lastName26</t>
+          <t>firstName27 lastName27</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>firstName27 lastName27</t>
+          <t>firstName28 lastName28</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>firstName28 lastName28</t>
+          <t>firstName29 lastName29</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>firstName29 lastName29</t>
+          <t>firstName30 lastName30</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>firstName30 lastName30</t>
+          <t>firstName31 lastName31</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>firstName31 lastName31</t>
+          <t>firstName32 lastName32</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>firstName32 lastName32</t>
+          <t>firstName33 lastName33</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>firstName33 lastName33</t>
+          <t>firstName34 lastName34</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>firstName34 lastName34</t>
+          <t>firstName35 lastName35</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>firstName35 lastName35</t>
+          <t>firstName36 lastName36</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>firstName36 lastName36</t>
+          <t>firstName37 lastName37</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>firstName37 lastName37</t>
+          <t>firstName38 lastName38</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>firstName38 lastName38</t>
+          <t>firstName39 lastName39</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>firstName39 lastName39</t>
+          <t>firstName40 lastName40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>firstName40 lastName40</t>
+          <t>firstName41 lastName41</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>firstName41 lastName41</t>
+          <t>firstName42 lastName42</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>firstName42 lastName42</t>
+          <t>firstName43 lastName43</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>firstName43 lastName43</t>
+          <t>firstName44 lastName44</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>firstName44 lastName44</t>
+          <t>firstName45 lastName45</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>firstName45 lastName45</t>
+          <t>firstName46 lastName46</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>firstName46 lastName46</t>
+          <t>firstName47 lastName47</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>firstName47 lastName47</t>
+          <t>firstName48 lastName48</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>firstName48 lastName48</t>
+          <t>firstName49 lastName49</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="B51" t="b">
         <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>firstName49 lastName49</t>
+          <t>firstName50 lastName50</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>firstName50 lastName50</t>
+          <t>firstName51 lastName51</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>firstName51 lastName51</t>
+          <t>firstName52 lastName52</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>firstName52 lastName52</t>
+          <t>firstName53 lastName53</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>firstName53 lastName53</t>
+          <t>firstName54 lastName54</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>firstName54 lastName54</t>
+          <t>firstName55 lastName55</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>firstName55 lastName55</t>
+          <t>firstName56 lastName56</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>firstName56 lastName56</t>
+          <t>firstName57 lastName57</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>firstName57 lastName57</t>
+          <t>firstName58 lastName58</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>firstName58 lastName58</t>
+          <t>firstName59 lastName59</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>firstName59 lastName59</t>
+          <t>firstName60 lastName60</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>firstName60 lastName60</t>
+          <t>firstName61 lastName61</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>firstName61 lastName61</t>
+          <t>firstName62 lastName62</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>firstName62 lastName62</t>
+          <t>firstName63 lastName63</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>firstName63 lastName63</t>
+          <t>firstName64 lastName64</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>firstName64 lastName64</t>
+          <t>firstName65 lastName65</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>firstName65 lastName65</t>
+          <t>firstName66 lastName66</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>firstName66 lastName66</t>
+          <t>firstName67 lastName67</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>firstName67 lastName67</t>
+          <t>firstName68 lastName68</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>firstName68 lastName68</t>
+          <t>firstName69 lastName69</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>firstName69 lastName69</t>
+          <t>firstName70 lastName70</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>firstName70 lastName70</t>
+          <t>firstName71 lastName71</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>firstName71 lastName71</t>
+          <t>firstName72 lastName72</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>firstName72 lastName72</t>
+          <t>firstName73 lastName73</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="B75" t="b">
         <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>firstName73 lastName73</t>
+          <t>firstName74 lastName74</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>firstName74 lastName74</t>
+          <t>firstName75 lastName75</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="B77" t="b">
         <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>firstName75 lastName75</t>
+          <t>firstName76 lastName76</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>firstName76 lastName76</t>
+          <t>firstName77 lastName77</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>firstName77 lastName77</t>
+          <t>firstName78 lastName78</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="B80" t="b">
         <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>firstName78 lastName78</t>
+          <t>firstName79 lastName79</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="B81" t="b">
         <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>firstName79 lastName79</t>
+          <t>firstName80 lastName80</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="B82" t="b">
         <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>firstName80 lastName80</t>
+          <t>firstName81 lastName81</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="B83" t="b">
         <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>firstName81 lastName81</t>
+          <t>firstName82 lastName82</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="B84" t="b">
         <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>firstName82 lastName82</t>
+          <t>firstName83 lastName83</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="B85" t="b">
         <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>firstName83 lastName83</t>
+          <t>firstName84 lastName84</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="B86" t="b">
         <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>firstName84 lastName84</t>
+          <t>firstName85 lastName85</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="B87" t="b">
         <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>firstName85 lastName85</t>
+          <t>firstName86 lastName86</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="B88" t="b">
         <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>firstName86 lastName86</t>
+          <t>firstName87 lastName87</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="B89" t="b">
         <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>firstName87 lastName87</t>
+          <t>firstName88 lastName88</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="B90" t="b">
         <v>1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>firstName88 lastName88</t>
+          <t>firstName89 lastName89</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="B91" t="b">
         <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>firstName89 lastName89</t>
+          <t>firstName90 lastName90</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="B92" t="b">
         <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>firstName90 lastName90</t>
+          <t>firstName91 lastName91</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="B93" t="b">
         <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>firstName91 lastName91</t>
+          <t>firstName92 lastName92</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="B94" t="b">
         <v>1</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>firstName92 lastName92</t>
+          <t>firstName93 lastName93</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="B95" t="b">
         <v>1</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>firstName93 lastName93</t>
+          <t>firstName94 lastName94</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="B96" t="b">
         <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>firstName94 lastName94</t>
+          <t>firstName95 lastName95</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="B97" t="b">
         <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>firstName95 lastName95</t>
+          <t>firstName96 lastName96</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="B98" t="b">
         <v>1</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>firstName96 lastName96</t>
+          <t>firstName97 lastName97</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="B99" t="b">
         <v>1</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>firstName97 lastName97</t>
+          <t>firstName98 lastName98</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="B100" t="b">
         <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>firstName98 lastName98</t>
+          <t>firstName99 lastName99</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B101" t="b">
         <v>1</v>
       </c>
       <c r="C101" t="inlineStr">
-        <is>
-          <t>firstName99 lastName99</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>201</v>
-      </c>
-      <c r="B102" t="b">
-        <v>1</v>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>firstName100 lastName100</t>
         </is>
